--- a/2022/Symphony/January/02.01.2022/MC Bank Statement January-2022.xlsx
+++ b/2022/Symphony/January/02.01.2022/MC Bank Statement January-2022.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="225">
   <si>
     <t>Date</t>
   </si>
@@ -639,9 +639,6 @@
     <t>18.12.2021</t>
   </si>
   <si>
-    <t>19.12.2021</t>
-  </si>
-  <si>
     <t>Khondokar Electronics</t>
   </si>
   <si>
@@ -666,13 +663,7 @@
     <t>21.12.2021</t>
   </si>
   <si>
-    <t>22.12.2021</t>
-  </si>
-  <si>
     <t>25.12.2021</t>
-  </si>
-  <si>
-    <t>26.12.2021</t>
   </si>
   <si>
     <t>Boss(+)</t>
@@ -736,6 +727,12 @@
   </si>
   <si>
     <t>Date:02.01.2022</t>
+  </si>
+  <si>
+    <t>02.01.2021</t>
+  </si>
+  <si>
+    <t>02.01.2022</t>
   </si>
 </sst>
 </file>
@@ -4916,7 +4913,7 @@
   <dimension ref="A1:G85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -4952,7 +4949,7 @@
     <row r="3" spans="1:7" ht="16.5" customHeight="1">
       <c r="A3" s="312"/>
       <c r="B3" s="310" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C3" s="310"/>
       <c r="D3" s="310"/>
@@ -5009,7 +5006,7 @@
     <row r="7" spans="1:7">
       <c r="A7" s="312"/>
       <c r="B7" s="26" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C7" s="271">
         <v>0</v>
@@ -5026,9 +5023,15 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="312"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="271"/>
-      <c r="D8" s="271"/>
+      <c r="B8" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="C8" s="271">
+        <v>0</v>
+      </c>
+      <c r="D8" s="271">
+        <v>0</v>
+      </c>
       <c r="E8" s="273">
         <f>E7+C8-D8</f>
         <v>26038</v>
@@ -5938,8 +5941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X320"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Q37" sqref="Q37"/>
     </sheetView>
   </sheetViews>
@@ -5997,7 +6000,7 @@
     </row>
     <row r="3" spans="1:24" s="73" customFormat="1" ht="16.5" thickBot="1">
       <c r="A3" s="319" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B3" s="320"/>
       <c r="C3" s="320"/>
@@ -6039,16 +6042,16 @@
         <v>40</v>
       </c>
       <c r="F4" s="313" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G4" s="313" t="s">
         <v>41</v>
       </c>
       <c r="H4" s="313" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I4" s="313" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="J4" s="313" t="s">
         <v>42</v>
@@ -6109,10 +6112,10 @@
     </row>
     <row r="6" spans="1:24" s="13" customFormat="1">
       <c r="A6" s="81" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B6" s="82">
-        <v>2300</v>
+        <v>1800</v>
       </c>
       <c r="C6" s="82"/>
       <c r="D6" s="83"/>
@@ -6138,7 +6141,7 @@
       <c r="P6" s="85"/>
       <c r="Q6" s="86">
         <f t="shared" ref="Q6:Q36" si="0">SUM(B6:P6)</f>
-        <v>4589</v>
+        <v>4089</v>
       </c>
       <c r="R6" s="87"/>
       <c r="S6" s="88"/>
@@ -6148,17 +6151,27 @@
       <c r="W6" s="5"/>
     </row>
     <row r="7" spans="1:24" s="13" customFormat="1">
-      <c r="A7" s="81"/>
-      <c r="B7" s="82"/>
+      <c r="A7" s="81" t="s">
+        <v>224</v>
+      </c>
+      <c r="B7" s="82">
+        <v>1000</v>
+      </c>
       <c r="C7" s="82"/>
       <c r="D7" s="83"/>
       <c r="E7" s="83"/>
       <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
+      <c r="G7" s="83">
+        <v>520</v>
+      </c>
       <c r="H7" s="83"/>
       <c r="I7" s="83"/>
-      <c r="J7" s="84"/>
-      <c r="K7" s="83"/>
+      <c r="J7" s="84">
+        <v>40</v>
+      </c>
+      <c r="K7" s="83">
+        <v>480</v>
+      </c>
       <c r="L7" s="83"/>
       <c r="M7" s="83"/>
       <c r="N7" s="120"/>
@@ -6166,7 +6179,7 @@
       <c r="P7" s="85"/>
       <c r="Q7" s="86">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2040</v>
       </c>
       <c r="R7" s="87"/>
       <c r="S7" s="34"/>
@@ -6935,7 +6948,7 @@
       </c>
       <c r="B37" s="107">
         <f>SUM(B6:B36)</f>
-        <v>2300</v>
+        <v>2800</v>
       </c>
       <c r="C37" s="108">
         <f t="shared" ref="C37:P37" si="1">SUM(C6:C36)</f>
@@ -6955,7 +6968,7 @@
       </c>
       <c r="G37" s="108">
         <f>SUM(G6:G36)</f>
-        <v>980</v>
+        <v>1500</v>
       </c>
       <c r="H37" s="108">
         <f t="shared" si="1"/>
@@ -6967,11 +6980,11 @@
       </c>
       <c r="J37" s="108">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="K37" s="108">
         <f t="shared" si="1"/>
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="L37" s="108">
         <f t="shared" si="1"/>
@@ -6995,7 +7008,7 @@
       </c>
       <c r="Q37" s="110">
         <f>SUM(Q6:Q36)</f>
-        <v>4589</v>
+        <v>6129</v>
       </c>
       <c r="S37" s="241" t="s">
         <v>55</v>
@@ -8999,8 +9012,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:Q3"/>
@@ -9018,6 +9029,8 @@
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9031,8 +9044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS1357"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D121" sqref="D121"/>
+    <sheetView topLeftCell="A34" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -9161,7 +9174,7 @@
     </row>
     <row r="2" spans="1:97" ht="15" customHeight="1">
       <c r="A2" s="335" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B2" s="336"/>
       <c r="C2" s="336"/>
@@ -9476,7 +9489,7 @@
     </row>
     <row r="5" spans="1:97">
       <c r="A5" s="191" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B5" s="54">
         <v>654090</v>
@@ -9587,16 +9600,26 @@
       <c r="CS5" s="147"/>
     </row>
     <row r="6" spans="1:97">
-      <c r="A6" s="192"/>
-      <c r="B6" s="55"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="55"/>
+      <c r="A6" s="192" t="s">
+        <v>223</v>
+      </c>
+      <c r="B6" s="55">
+        <v>340240</v>
+      </c>
+      <c r="C6" s="58">
+        <v>408520</v>
+      </c>
+      <c r="D6" s="55">
+        <v>2040</v>
+      </c>
       <c r="E6" s="55">
         <f t="shared" ref="E6:E32" si="0">C6+D6</f>
-        <v>0</v>
+        <v>410560</v>
       </c>
       <c r="F6" s="243"/>
-      <c r="G6" s="256"/>
+      <c r="G6" s="256">
+        <v>300</v>
+      </c>
       <c r="H6" s="160"/>
       <c r="I6" s="157"/>
       <c r="J6" s="152"/>
@@ -12346,23 +12369,23 @@
       </c>
       <c r="B33" s="278">
         <f>SUM(B5:B32)</f>
-        <v>654090</v>
+        <v>994330</v>
       </c>
       <c r="C33" s="279">
         <f>SUM(C5:C32)</f>
-        <v>367400</v>
+        <v>775920</v>
       </c>
       <c r="D33" s="278">
         <f>SUM(D5:D32)</f>
-        <v>3790</v>
+        <v>5830</v>
       </c>
       <c r="E33" s="278">
         <f>SUM(E5:E32)</f>
-        <v>371190</v>
+        <v>781750</v>
       </c>
       <c r="F33" s="278">
         <f>B33-E33</f>
-        <v>282900</v>
+        <v>212580</v>
       </c>
       <c r="G33" s="280"/>
       <c r="H33" s="148"/>
@@ -12997,10 +13020,10 @@
         <v>158</v>
       </c>
       <c r="D39" s="218">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="E39" s="185" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="F39" s="141"/>
       <c r="G39" s="148"/>
@@ -13320,16 +13343,16 @@
         <v>110</v>
       </c>
       <c r="B42" s="64" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C42" s="125" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D42" s="218">
         <v>299040</v>
       </c>
       <c r="E42" s="186" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F42" s="147"/>
       <c r="G42" s="156" t="s">
@@ -13758,10 +13781,10 @@
       </c>
       <c r="C46" s="137"/>
       <c r="D46" s="220">
-        <v>610340</v>
+        <v>589850</v>
       </c>
       <c r="E46" s="296" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="F46" s="140"/>
       <c r="G46" s="147"/>
@@ -13879,7 +13902,7 @@
         <v>200000</v>
       </c>
       <c r="E47" s="187" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F47" s="141"/>
       <c r="G47" s="147"/>
@@ -14115,7 +14138,7 @@
         <v>150000</v>
       </c>
       <c r="E49" s="187" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F49" s="141"/>
       <c r="G49" s="147"/>
@@ -14230,10 +14253,10 @@
       </c>
       <c r="C50" s="125"/>
       <c r="D50" s="221">
-        <v>173780</v>
+        <v>163780</v>
       </c>
       <c r="E50" s="187" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="F50" s="141"/>
       <c r="G50" s="147"/>
@@ -14466,10 +14489,10 @@
       </c>
       <c r="C52" s="125"/>
       <c r="D52" s="221">
-        <v>33000</v>
+        <v>30000</v>
       </c>
       <c r="E52" s="188" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="F52" s="141"/>
       <c r="G52" s="147"/>
@@ -14585,7 +14608,7 @@
         <v>32120</v>
       </c>
       <c r="E53" s="189" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F53" s="141"/>
       <c r="G53" s="147"/>
@@ -14700,10 +14723,10 @@
       </c>
       <c r="C54" s="125"/>
       <c r="D54" s="221">
-        <v>70390</v>
+        <v>54500</v>
       </c>
       <c r="E54" s="187" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="F54" s="141"/>
       <c r="G54" s="147"/>
@@ -16131,7 +16154,7 @@
         <v>78750</v>
       </c>
       <c r="E67" s="188" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F67" s="141"/>
       <c r="G67" s="147"/>
@@ -17295,17 +17318,17 @@
     </row>
     <row r="77" spans="1:97">
       <c r="A77" s="238" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B77" s="60" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C77" s="125"/>
       <c r="D77" s="221">
         <v>7240</v>
       </c>
       <c r="E77" s="188" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F77" s="141"/>
       <c r="G77" s="147"/>
@@ -17408,14 +17431,14 @@
         <v>111</v>
       </c>
       <c r="B78" s="60" t="s">
-        <v>157</v>
+        <v>193</v>
       </c>
       <c r="C78" s="125"/>
       <c r="D78" s="221">
-        <v>9000</v>
-      </c>
-      <c r="E78" s="187" t="s">
-        <v>208</v>
+        <v>8310</v>
+      </c>
+      <c r="E78" s="188" t="s">
+        <v>223</v>
       </c>
       <c r="F78" s="141"/>
       <c r="G78" s="147"/>
@@ -17517,17 +17540,17 @@
     </row>
     <row r="79" spans="1:97">
       <c r="A79" s="238" t="s">
-        <v>111</v>
+        <v>198</v>
       </c>
       <c r="B79" s="60" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="C79" s="125"/>
       <c r="D79" s="221">
-        <v>8610</v>
-      </c>
-      <c r="E79" s="188" t="s">
-        <v>193</v>
+        <v>4216</v>
+      </c>
+      <c r="E79" s="187" t="s">
+        <v>201</v>
       </c>
       <c r="F79" s="141"/>
       <c r="G79" s="147"/>
@@ -17635,24 +17658,24 @@
     </row>
     <row r="80" spans="1:97">
       <c r="A80" s="238" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="B80" s="60" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="C80" s="125"/>
       <c r="D80" s="221">
-        <v>4216</v>
-      </c>
-      <c r="E80" s="187" t="s">
-        <v>203</v>
+        <v>5000</v>
+      </c>
+      <c r="E80" s="189" t="s">
+        <v>223</v>
       </c>
       <c r="F80" s="141" t="s">
         <v>13</v>
       </c>
       <c r="G80" s="147"/>
       <c r="H80" s="197" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I80" s="62"/>
       <c r="J80" s="58">
@@ -17753,17 +17776,17 @@
     </row>
     <row r="81" spans="1:97">
       <c r="A81" s="238" t="s">
-        <v>219</v>
+        <v>175</v>
       </c>
       <c r="B81" s="60" t="s">
-        <v>220</v>
+        <v>176</v>
       </c>
       <c r="C81" s="125"/>
       <c r="D81" s="221">
-        <v>10000</v>
-      </c>
-      <c r="E81" s="189" t="s">
-        <v>216</v>
+        <v>17730</v>
+      </c>
+      <c r="E81" s="188" t="s">
+        <v>223</v>
       </c>
       <c r="F81" s="141"/>
       <c r="G81" s="147"/>
@@ -17865,22 +17888,22 @@
     </row>
     <row r="82" spans="1:97">
       <c r="A82" s="238" t="s">
-        <v>175</v>
+        <v>107</v>
       </c>
       <c r="B82" s="60" t="s">
-        <v>176</v>
+        <v>97</v>
       </c>
       <c r="C82" s="125"/>
       <c r="D82" s="221">
-        <v>16670</v>
+        <v>7000</v>
       </c>
       <c r="E82" s="188" t="s">
-        <v>210</v>
+        <v>161</v>
       </c>
       <c r="F82" s="143"/>
       <c r="G82" s="147"/>
       <c r="H82" s="197" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I82" s="62"/>
       <c r="J82" s="58">
@@ -17982,18 +18005,18 @@
       <c r="CS82" s="147"/>
     </row>
     <row r="83" spans="1:97">
-      <c r="A83" s="238" t="s">
+      <c r="A83" s="270" t="s">
         <v>107</v>
       </c>
       <c r="B83" s="60" t="s">
-        <v>97</v>
+        <v>146</v>
       </c>
       <c r="C83" s="125"/>
       <c r="D83" s="221">
-        <v>7000</v>
+        <v>37560</v>
       </c>
       <c r="E83" s="188" t="s">
-        <v>161</v>
+        <v>207</v>
       </c>
       <c r="F83" s="143"/>
       <c r="G83" s="147"/>
@@ -18100,18 +18123,18 @@
       <c r="CS83" s="147"/>
     </row>
     <row r="84" spans="1:97">
-      <c r="A84" s="270" t="s">
-        <v>107</v>
+      <c r="A84" s="238" t="s">
+        <v>182</v>
       </c>
       <c r="B84" s="60" t="s">
-        <v>146</v>
+        <v>183</v>
       </c>
       <c r="C84" s="125"/>
       <c r="D84" s="221">
-        <v>37560</v>
-      </c>
-      <c r="E84" s="188" t="s">
-        <v>210</v>
+        <v>560</v>
+      </c>
+      <c r="E84" s="189" t="s">
+        <v>223</v>
       </c>
       <c r="F84" s="143"/>
       <c r="G84" s="147"/>
@@ -18219,17 +18242,17 @@
     </row>
     <row r="85" spans="1:97">
       <c r="A85" s="238" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="B85" s="60" t="s">
-        <v>183</v>
+        <v>127</v>
       </c>
       <c r="C85" s="125"/>
       <c r="D85" s="221">
-        <v>1560</v>
-      </c>
-      <c r="E85" s="189" t="s">
-        <v>203</v>
+        <v>7000</v>
+      </c>
+      <c r="E85" s="187" t="s">
+        <v>223</v>
       </c>
       <c r="F85" s="143"/>
       <c r="G85" s="147"/>
@@ -18340,14 +18363,14 @@
         <v>169</v>
       </c>
       <c r="B86" s="60" t="s">
-        <v>127</v>
+        <v>170</v>
       </c>
       <c r="C86" s="125"/>
       <c r="D86" s="221">
-        <v>6000</v>
+        <v>40000</v>
       </c>
       <c r="E86" s="187" t="s">
-        <v>202</v>
+        <v>168</v>
       </c>
       <c r="F86" s="143"/>
       <c r="G86" s="147"/>
@@ -18455,17 +18478,17 @@
     </row>
     <row r="87" spans="1:97">
       <c r="A87" s="238" t="s">
-        <v>169</v>
-      </c>
-      <c r="B87" s="60" t="s">
-        <v>170</v>
+        <v>184</v>
+      </c>
+      <c r="B87" s="126" t="s">
+        <v>151</v>
       </c>
       <c r="C87" s="125"/>
       <c r="D87" s="221">
-        <v>40000</v>
-      </c>
-      <c r="E87" s="187" t="s">
-        <v>168</v>
+        <v>15000</v>
+      </c>
+      <c r="E87" s="188" t="s">
+        <v>223</v>
       </c>
       <c r="F87" s="141"/>
       <c r="G87" s="147"/>
@@ -18572,19 +18595,11 @@
       <c r="CS87" s="147"/>
     </row>
     <row r="88" spans="1:97">
-      <c r="A88" s="238" t="s">
-        <v>184</v>
-      </c>
-      <c r="B88" s="126" t="s">
-        <v>151</v>
-      </c>
+      <c r="A88" s="238"/>
+      <c r="B88" s="60"/>
       <c r="C88" s="125"/>
-      <c r="D88" s="221">
-        <v>20000</v>
-      </c>
-      <c r="E88" s="188" t="s">
-        <v>204</v>
-      </c>
+      <c r="D88" s="221"/>
+      <c r="E88" s="187"/>
       <c r="F88" s="141"/>
       <c r="G88" s="147"/>
       <c r="H88" s="197" t="s">
@@ -18690,19 +18705,11 @@
       <c r="CS88" s="147"/>
     </row>
     <row r="89" spans="1:97">
-      <c r="A89" s="238" t="s">
-        <v>184</v>
-      </c>
-      <c r="B89" s="60" t="s">
-        <v>190</v>
-      </c>
+      <c r="A89" s="238"/>
+      <c r="B89" s="60"/>
       <c r="C89" s="125"/>
-      <c r="D89" s="221">
-        <v>1900</v>
-      </c>
-      <c r="E89" s="189" t="s">
-        <v>189</v>
-      </c>
+      <c r="D89" s="221"/>
+      <c r="E89" s="189"/>
       <c r="F89" s="141"/>
       <c r="G89" s="147"/>
       <c r="H89" s="197" t="s">
@@ -18926,7 +18933,7 @@
       <c r="F91" s="141"/>
       <c r="G91" s="147"/>
       <c r="H91" s="184" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="I91" s="63"/>
       <c r="J91" s="178">
@@ -19717,7 +19724,7 @@
         <v>1500</v>
       </c>
       <c r="K98" s="179" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="L98" s="138">
         <v>1500</v>
@@ -20053,7 +20060,7 @@
         <v>1500</v>
       </c>
       <c r="K101" s="179" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="L101" s="138">
         <v>1500</v>
@@ -20156,10 +20163,10 @@
       <c r="F102" s="147"/>
       <c r="G102" s="147"/>
       <c r="H102" s="184" t="s">
+        <v>194</v>
+      </c>
+      <c r="I102" s="63" t="s">
         <v>195</v>
-      </c>
-      <c r="I102" s="63" t="s">
-        <v>196</v>
       </c>
       <c r="J102" s="178">
         <v>1000</v>
@@ -21941,7 +21948,7 @@
       <c r="C119" s="341"/>
       <c r="D119" s="224">
         <f>SUM(D37:D118)</f>
-        <v>2446801</v>
+        <v>2376481</v>
       </c>
       <c r="E119" s="216"/>
       <c r="F119" s="147"/>
@@ -22148,7 +22155,7 @@
       <c r="C121" s="329"/>
       <c r="D121" s="224">
         <f>D119+M121</f>
-        <v>2446801</v>
+        <v>2376481</v>
       </c>
       <c r="E121" s="216"/>
       <c r="F121" s="147"/>
@@ -33354,7 +33361,7 @@
       <c r="L1357" s="53"/>
     </row>
   </sheetData>
-  <sortState ref="A77:E93">
+  <sortState ref="A77:E88">
     <sortCondition ref="A77"/>
   </sortState>
   <mergeCells count="7">
@@ -33381,7 +33388,7 @@
   <dimension ref="A1:Y219"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H8" sqref="G8:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -33421,7 +33428,7 @@
     </row>
     <row r="3" spans="1:25" ht="23.25">
       <c r="A3" s="345" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B3" s="346"/>
       <c r="C3" s="346"/>
@@ -33491,7 +33498,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="259">
-        <v>8024416.841847619</v>
+        <v>8093512.8440047596</v>
       </c>
       <c r="F5" s="36"/>
       <c r="G5" s="282"/>
@@ -33519,7 +33526,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="263">
-        <v>17110.483347619043</v>
+        <v>26446.485504761913</v>
       </c>
       <c r="C6" s="43"/>
       <c r="D6" s="41" t="s">
@@ -33557,7 +33564,7 @@
         <v>71</v>
       </c>
       <c r="E7" s="308">
-        <v>1019651.6414999999</v>
+        <v>326181.64150000177</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="283"/>
@@ -33639,14 +33646,14 @@
         <v>14</v>
       </c>
       <c r="B10" s="263">
-        <v>4589</v>
+        <v>6129</v>
       </c>
       <c r="C10" s="42"/>
       <c r="D10" s="41" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="259">
-        <v>2446801</v>
+        <v>2426481</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="249"/>
@@ -33681,7 +33688,7 @@
         <v>72</v>
       </c>
       <c r="E11" s="259">
-        <v>95060</v>
+        <v>147550</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="249"/>
@@ -33710,11 +33717,11 @@
       </c>
       <c r="B12" s="264">
         <f>B6+B7+B8-B10-B11</f>
-        <v>12521.483347619043</v>
+        <v>20317.485504761913</v>
       </c>
       <c r="C12" s="42"/>
       <c r="D12" s="41" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E12" s="261">
         <v>-1599446</v>
@@ -33771,10 +33778,10 @@
     </row>
     <row r="14" spans="1:25" ht="21.75">
       <c r="A14" s="297" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B14" s="264">
-        <v>2000000</v>
+        <v>1400000</v>
       </c>
       <c r="C14" s="42"/>
       <c r="D14" s="132"/>
@@ -33806,7 +33813,7 @@
       </c>
       <c r="B15" s="265">
         <f>B5+B6+B7+B8-B10-B11+B14</f>
-        <v>10012521.483347619</v>
+        <v>9420317.4855047613</v>
       </c>
       <c r="C15" s="42"/>
       <c r="D15" s="42" t="s">
@@ -33814,7 +33821,7 @@
       </c>
       <c r="E15" s="262">
         <f>E5+E6+E7+E10+E11+E12+E13</f>
-        <v>10012521.483347619</v>
+        <v>9420317.4855047613</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="119">
@@ -33910,7 +33917,7 @@
         <v>17</v>
       </c>
       <c r="E18" s="301">
-        <v>610340</v>
+        <v>590000</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="16"/>
@@ -34045,7 +34052,7 @@
         <v>185</v>
       </c>
       <c r="E22" s="303">
-        <v>198780</v>
+        <v>163780</v>
       </c>
       <c r="G22" s="35"/>
       <c r="H22" s="7"/>
@@ -34069,17 +34076,17 @@
     </row>
     <row r="23" spans="1:25" ht="21.75">
       <c r="A23" s="268" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B23" s="129">
         <v>299040</v>
       </c>
       <c r="C23" s="130"/>
       <c r="D23" s="302" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E23" s="303">
-        <v>60760</v>
+        <v>54500</v>
       </c>
       <c r="G23" s="35"/>
       <c r="H23" s="7"/>
@@ -34103,7 +34110,7 @@
     </row>
     <row r="24" spans="1:25" ht="21.75">
       <c r="A24" s="268" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B24" s="129">
         <v>37560</v>
